--- a/biology/Botanique/Evax_prolifera/Evax_prolifera.xlsx
+++ b/biology/Botanique/Evax_prolifera/Evax_prolifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaperia prolifera est une espèce de plantes à fleurs  de la famille des Asteraceae et du genre Diaperia, originaire d'Amérique du Nord.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier officiellement par le botaniste suisse Augustin-Pyramus de Candolle en 1836, à partir des travaux du britannique Thomas Nuttall ; elle est alors classée dans le genre Evax sous le nom binominal Evax prolifera. En 1841, Nuttal renomme l'espèce Diaperia prolifera pour le nouveau genre Diaperia. L'espèce a également été classée dans le genre Filago sous les noms Filago nuttallii et Filago prolifera. Le nom correct est cependant Diaperia prolifera[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier officiellement par le botaniste suisse Augustin-Pyramus de Candolle en 1836, à partir des travaux du britannique Thomas Nuttall ; elle est alors classée dans le genre Evax sous le nom binominal Evax prolifera. En 1841, Nuttal renomme l'espèce Diaperia prolifera pour le nouveau genre Diaperia. L'espèce a également été classée dans le genre Filago sous les noms Filago nuttallii et Filago prolifera. Le nom correct est cependant Diaperia prolifera.
 </t>
         </is>
       </c>
@@ -544,15 +558,90 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante annuelle vert grisâtre à argenté, d'une hauteur de 3 à 15 cm, séreuse à lanugineuse. Les tiges sont généralement de 2 à 10 ; les branches sont proximales et distales, distales opposées ou, parfois, semblent alternes lorsqu'elles sont inégales ; il n'y en a rarement aucune. Les plus grandes feuilles sont longues de 7–15 mm et larges de 2–4 mm ; les feuilles sont en capitules sous-tendant les glomérules, également visibles entre les têtes et les dépassant[2].
-Appareil reproducteur
-Les capitules sont en réseaux strictement dichasiformes ou pseudo-polytomes (semblant parfois monochasiformes), cylindriques à plus ou moins ellipsoïdes, de 3,5–4,5 mm, d'une hauteur 2 à 3 fois supérieure au diamètre. Les réceptacles sont largement ou étroitement coniques, de 0,4 à 0,6 mm ou plus ou moins 0,9–1,1 mm, hauts de 0,5-0,7 ou de 2–2,4 fois les diamètres. Le pistil est imbriqué, le plus long de 2,5–4 mm. Il y a plus ou moins trois étamines, aux sommets dressés à légèrement étalés, plus ou moins plans. Les fleurons staminés sont fonctionnels par 2 à 4 ; les ovaires sont partiellement développés, mesurant 0,4–0,6 mm ; les corolles sont cachées dans les têtes, actinomorphes, de 1,4–2 mm, glabres, les lobes égaux. Les fruits sont des cypsèles plus ou moins angulaires, obcompressées, mesurant généralement 0,9–1,2 mm[2].
-Variabilité
-Deux variétés ont été décrites :
-Diaperia prolifera var. prolifera, variété type, grisâtre à verdâtre[2] ;
-Diaperia prolifera var. barnebyi décrite par James D. Morefield en 2004, nommée en hommage à Rupert Charles Barneby[3]. Cette variété est de couleur blanc argenté[2].
-Des intermédiaires entre les deux variétés se produisent là où leurs aires de répartition se croisent dans le centre du Texas et de l'Oklahoma[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle vert grisâtre à argenté, d'une hauteur de 3 à 15 cm, séreuse à lanugineuse. Les tiges sont généralement de 2 à 10 ; les branches sont proximales et distales, distales opposées ou, parfois, semblent alternes lorsqu'elles sont inégales ; il n'y en a rarement aucune. Les plus grandes feuilles sont longues de 7–15 mm et larges de 2–4 mm ; les feuilles sont en capitules sous-tendant les glomérules, également visibles entre les têtes et les dépassant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evax_prolifera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evax_prolifera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les capitules sont en réseaux strictement dichasiformes ou pseudo-polytomes (semblant parfois monochasiformes), cylindriques à plus ou moins ellipsoïdes, de 3,5–4,5 mm, d'une hauteur 2 à 3 fois supérieure au diamètre. Les réceptacles sont largement ou étroitement coniques, de 0,4 à 0,6 mm ou plus ou moins 0,9–1,1 mm, hauts de 0,5-0,7 ou de 2–2,4 fois les diamètres. Le pistil est imbriqué, le plus long de 2,5–4 mm. Il y a plus ou moins trois étamines, aux sommets dressés à légèrement étalés, plus ou moins plans. Les fleurons staminés sont fonctionnels par 2 à 4 ; les ovaires sont partiellement développés, mesurant 0,4–0,6 mm ; les corolles sont cachées dans les têtes, actinomorphes, de 1,4–2 mm, glabres, les lobes égaux. Les fruits sont des cypsèles plus ou moins angulaires, obcompressées, mesurant généralement 0,9–1,2 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Evax_prolifera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evax_prolifera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variabilité</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux variétés ont été décrites :
+Diaperia prolifera var. prolifera, variété type, grisâtre à verdâtre ;
+Diaperia prolifera var. barnebyi décrite par James D. Morefield en 2004, nommée en hommage à Rupert Charles Barneby. Cette variété est de couleur blanc argenté.
+Des intermédiaires entre les deux variétés se produisent là où leurs aires de répartition se croisent dans le centre du Texas et de l'Oklahoma.
 </t>
         </is>
       </c>
